--- a/TestCase/KG__ERP__IntegrationTestCase__EmployeeDashboard__2019-08-06__v1.0.0.xlsx
+++ b/TestCase/KG__ERP__IntegrationTestCase__EmployeeDashboard__2019-08-06__v1.0.0.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="170">
   <si>
     <t>General Guidelines</t>
   </si>
@@ -435,18 +435,6 @@
     <t>6. Upcoming Govt Holiday</t>
   </si>
   <si>
-    <t xml:space="preserve">7. Employee File upload (Image, Certificate, signature) </t>
-  </si>
-  <si>
-    <t>8. Leave Status like total Leave consumed leave, Remaining leave</t>
-  </si>
-  <si>
-    <t>9. Pending Task and task list with priority</t>
-  </si>
-  <si>
-    <t>10. In-Time Statistics Report with Pie/Graph chart for this month or date range</t>
-  </si>
-  <si>
     <t>Employee Dashboard</t>
   </si>
   <si>
@@ -486,9 +474,6 @@
     <t>ITC010</t>
   </si>
   <si>
-    <t xml:space="preserve">11. Email Notification </t>
-  </si>
-  <si>
     <t>ITC011</t>
   </si>
   <si>
@@ -529,6 +514,93 @@
   </si>
   <si>
     <t>6. Total Todays Employee leave status Count</t>
+  </si>
+  <si>
+    <t>7. Leave Status like total Leave consumed leave, Remaining leave</t>
+  </si>
+  <si>
+    <t>8. Pending Task and task list with priority</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. Email Notification </t>
+  </si>
+  <si>
+    <t>7. Todays Employees Birthday</t>
+  </si>
+  <si>
+    <t>8. Newly joined employee list with notification for 30days</t>
+  </si>
+  <si>
+    <t>10. Newly joined employee list with notification for 30days</t>
+  </si>
+  <si>
+    <t>Current Attendance Status.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count Total Late in and Early out Status. </t>
+  </si>
+  <si>
+    <t>Upcoming Govt Holiday</t>
+  </si>
+  <si>
+    <t>Newly joined employee list with notification for 30days</t>
+  </si>
+  <si>
+    <t>Total Leave Balance (Earn Leave, Casual Leave)</t>
+  </si>
+  <si>
+    <t>ITC017</t>
+  </si>
+  <si>
+    <t>ITC018</t>
+  </si>
+  <si>
+    <t>ITC019</t>
+  </si>
+  <si>
+    <t>ITC020</t>
+  </si>
+  <si>
+    <t>ITC021</t>
+  </si>
+  <si>
+    <t>ITC022</t>
+  </si>
+  <si>
+    <t>ITC023</t>
+  </si>
+  <si>
+    <t>ITC024</t>
+  </si>
+  <si>
+    <t>1. Additional All employee time status</t>
+  </si>
+  <si>
+    <t>2. Daily Total Present Employee Status (today)</t>
+  </si>
+  <si>
+    <t>3. Today attendance status report with Graph / Pie Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Total Absent Employee Status count </t>
+  </si>
+  <si>
+    <t>5. Total Todays Employee leave status Count</t>
+  </si>
+  <si>
+    <t>6. Todays Employees Birthday</t>
+  </si>
+  <si>
+    <t>7. Newly joined employee list with notification for 30days</t>
+  </si>
+  <si>
+    <t>1. Additional All team member time status</t>
+  </si>
+  <si>
+    <t>2. All employee time will show.</t>
+  </si>
+  <si>
+    <t>3. Individual Employee time will show with Employee ID and date range which employee have on leave.</t>
   </si>
 </sst>
 </file>
@@ -682,7 +754,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -710,6 +782,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -897,7 +987,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1080,15 +1170,6 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1106,14 +1187,20 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1124,21 +1211,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1146,6 +1218,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1927,10 +2029,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P128"/>
+  <dimension ref="A1:P127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="F8" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1939,7 +2041,7 @@
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
     <col min="5" max="5" width="20.140625" customWidth="1"/>
     <col min="6" max="6" width="59.140625" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1"/>
+    <col min="7" max="7" width="41.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.7109375" customWidth="1"/>
     <col min="9" max="9" width="15.5703125" customWidth="1"/>
     <col min="10" max="10" width="15.7109375" customWidth="1"/>
@@ -1988,10 +2090,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="74" t="s">
+      <c r="D4" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="74"/>
+      <c r="E4" s="83"/>
       <c r="F4" s="4"/>
       <c r="H4" s="9"/>
       <c r="I4" s="33"/>
@@ -2024,8 +2126,8 @@
         <v>24</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
       <c r="F6" s="4"/>
       <c r="H6" s="9"/>
       <c r="I6" s="33"/>
@@ -2056,24 +2158,24 @@
     </row>
     <row r="8" spans="1:16" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="73" t="s">
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="73"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="73"/>
-      <c r="O8" s="73"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="82"/>
       <c r="P8" s="43" t="s">
         <v>13</v>
       </c>
@@ -2126,24 +2228,26 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="56"/>
-      <c r="B10" s="93" t="s">
+      <c r="B10" s="87" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="85" t="s">
+      <c r="C10" s="84" t="s">
         <v>95</v>
       </c>
       <c r="D10" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="E10" s="82" t="s">
-        <v>118</v>
-      </c>
-      <c r="F10" s="75" t="s">
+      <c r="E10" s="92" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="G10" s="29"/>
+      <c r="G10" s="29" t="s">
+        <v>147</v>
+      </c>
       <c r="H10" s="29"/>
       <c r="I10" s="58" t="s">
         <v>105</v>
@@ -2158,16 +2262,18 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="56"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="86"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="85"/>
       <c r="D11" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="83"/>
+      <c r="E11" s="93"/>
       <c r="F11" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="G11" s="29"/>
+      <c r="G11" s="29" t="s">
+        <v>148</v>
+      </c>
       <c r="H11" s="29"/>
       <c r="I11" s="58"/>
       <c r="J11" s="29"/>
@@ -2180,16 +2286,18 @@
     </row>
     <row r="12" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="56"/>
-      <c r="B12" s="94"/>
-      <c r="C12" s="86"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="85"/>
       <c r="D12" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="E12" s="83"/>
+      <c r="E12" s="93"/>
       <c r="F12" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="G12" s="29"/>
+      <c r="G12" s="29" t="s">
+        <v>149</v>
+      </c>
       <c r="H12" s="29"/>
       <c r="I12" s="58"/>
       <c r="J12" s="65"/>
@@ -2200,579 +2308,619 @@
       <c r="O12" s="64"/>
       <c r="P12" s="58"/>
     </row>
-    <row r="13" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="61"/>
-      <c r="B13" s="94"/>
-      <c r="C13" s="86"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="85"/>
       <c r="D13" s="57" t="s">
-        <v>124</v>
-      </c>
-      <c r="E13" s="83"/>
+        <v>120</v>
+      </c>
+      <c r="E13" s="93"/>
       <c r="F13" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="79"/>
-      <c r="O13" s="79"/>
-      <c r="P13" s="80"/>
-    </row>
-    <row r="14" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="76"/>
+      <c r="P13" s="77"/>
+    </row>
+    <row r="14" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="61"/>
-      <c r="B14" s="94"/>
-      <c r="C14" s="86"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="85"/>
       <c r="D14" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="E14" s="83"/>
+        <v>121</v>
+      </c>
+      <c r="E14" s="93"/>
       <c r="F14" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="79"/>
-      <c r="N14" s="79"/>
-      <c r="O14" s="79"/>
-      <c r="P14" s="80"/>
+      <c r="G14" s="91" t="s">
+        <v>151</v>
+      </c>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="76"/>
+      <c r="O14" s="76"/>
+      <c r="P14" s="77"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="61"/>
-      <c r="B15" s="94"/>
-      <c r="C15" s="86"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="85"/>
       <c r="D15" s="57" t="s">
-        <v>126</v>
-      </c>
-      <c r="E15" s="83"/>
+        <v>122</v>
+      </c>
+      <c r="E15" s="93"/>
       <c r="F15" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="79"/>
-      <c r="N15" s="79"/>
-      <c r="O15" s="79"/>
-      <c r="P15" s="80"/>
-    </row>
-    <row r="16" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="76"/>
+      <c r="N15" s="76"/>
+      <c r="O15" s="76"/>
+      <c r="P15" s="77"/>
+    </row>
+    <row r="16" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="61"/>
-      <c r="B16" s="94"/>
-      <c r="C16" s="86"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="85"/>
       <c r="D16" s="57" t="s">
-        <v>127</v>
-      </c>
-      <c r="E16" s="83"/>
-      <c r="F16" s="57" t="s">
-        <v>114</v>
-      </c>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="78"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="79"/>
-      <c r="N16" s="79"/>
-      <c r="O16" s="79"/>
-      <c r="P16" s="80"/>
+        <v>123</v>
+      </c>
+      <c r="E16" s="93"/>
+      <c r="F16" s="73" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="76"/>
+      <c r="O16" s="76"/>
+      <c r="P16" s="77"/>
     </row>
     <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="61"/>
-      <c r="B17" s="94"/>
-      <c r="C17" s="86"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="85"/>
       <c r="D17" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="E17" s="83"/>
-      <c r="F17" s="76" t="s">
-        <v>115</v>
-      </c>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="78"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="79"/>
-      <c r="N17" s="79"/>
-      <c r="O17" s="79"/>
-      <c r="P17" s="80"/>
-    </row>
-    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+      <c r="E17" s="93"/>
+      <c r="F17" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="76"/>
+      <c r="N17" s="76"/>
+      <c r="O17" s="76"/>
+      <c r="P17" s="77"/>
+    </row>
+    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="61"/>
-      <c r="B18" s="94"/>
-      <c r="C18" s="86"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="85"/>
       <c r="D18" s="57" t="s">
-        <v>129</v>
-      </c>
-      <c r="E18" s="83"/>
-      <c r="F18" s="76" t="s">
-        <v>116</v>
-      </c>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="79"/>
-      <c r="O18" s="79"/>
-      <c r="P18" s="80"/>
+        <v>125</v>
+      </c>
+      <c r="E18" s="93"/>
+      <c r="F18" s="78" t="s">
+        <v>143</v>
+      </c>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="76"/>
+      <c r="O18" s="76"/>
+      <c r="P18" s="77"/>
     </row>
     <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="61"/>
-      <c r="B19" s="94"/>
-      <c r="C19" s="86"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="85"/>
       <c r="D19" s="57" t="s">
-        <v>130</v>
-      </c>
-      <c r="E19" s="83"/>
-      <c r="F19" s="81" t="s">
-        <v>117</v>
-      </c>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="78"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="79"/>
-      <c r="N19" s="79"/>
-      <c r="O19" s="79"/>
-      <c r="P19" s="80"/>
+        <v>126</v>
+      </c>
+      <c r="E19" s="93"/>
+      <c r="F19" s="78" t="s">
+        <v>146</v>
+      </c>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="76"/>
+      <c r="M19" s="76"/>
+      <c r="N19" s="76"/>
+      <c r="O19" s="76"/>
+      <c r="P19" s="77"/>
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="61"/>
-      <c r="B20" s="94"/>
-      <c r="C20" s="87"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="86"/>
       <c r="D20" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="E20" s="84"/>
-      <c r="F20" s="81" t="s">
-        <v>131</v>
-      </c>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="79"/>
-      <c r="O20" s="79"/>
-      <c r="P20" s="80"/>
+        <v>127</v>
+      </c>
+      <c r="E20" s="94"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="76"/>
+      <c r="N20" s="76"/>
+      <c r="O20" s="76"/>
+      <c r="P20" s="77"/>
     </row>
     <row r="21" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="61"/>
-      <c r="B21" s="94"/>
-      <c r="C21" s="77"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="57" t="s">
-        <v>133</v>
-      </c>
-      <c r="E21" s="90" t="s">
-        <v>119</v>
-      </c>
-      <c r="F21" s="88" t="s">
-        <v>120</v>
-      </c>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="78"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="79"/>
-      <c r="N21" s="79"/>
-      <c r="O21" s="79"/>
-      <c r="P21" s="80"/>
+        <v>128</v>
+      </c>
+      <c r="E21" s="95" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" s="79" t="s">
+        <v>116</v>
+      </c>
+      <c r="G21" s="80" t="s">
+        <v>167</v>
+      </c>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="76"/>
+      <c r="M21" s="76"/>
+      <c r="N21" s="76"/>
+      <c r="O21" s="76"/>
+      <c r="P21" s="77"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="61"/>
-      <c r="B22" s="94"/>
-      <c r="C22" s="77"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="74"/>
       <c r="D22" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="E22" s="91"/>
-      <c r="F22" s="89" t="s">
-        <v>121</v>
-      </c>
-      <c r="G22" s="77"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="78"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="79"/>
-      <c r="O22" s="79"/>
-      <c r="P22" s="80"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="E22" s="96"/>
+      <c r="F22" s="80" t="s">
+        <v>117</v>
+      </c>
+      <c r="G22" s="80" t="s">
+        <v>168</v>
+      </c>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="76"/>
+      <c r="M22" s="76"/>
+      <c r="N22" s="76"/>
+      <c r="O22" s="76"/>
+      <c r="P22" s="77"/>
+    </row>
+    <row r="23" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A23" s="61"/>
-      <c r="B23" s="94"/>
-      <c r="C23" s="77"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="74"/>
       <c r="D23" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="E23" s="91"/>
-      <c r="F23" s="89" t="s">
-        <v>122</v>
-      </c>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="78"/>
-      <c r="L23" s="79"/>
-      <c r="M23" s="79"/>
-      <c r="N23" s="79"/>
-      <c r="O23" s="79"/>
-      <c r="P23" s="80"/>
+        <v>130</v>
+      </c>
+      <c r="E23" s="96"/>
+      <c r="F23" s="80" t="s">
+        <v>118</v>
+      </c>
+      <c r="G23" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="76"/>
+      <c r="O23" s="76"/>
+      <c r="P23" s="77"/>
     </row>
     <row r="24" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A24" s="61"/>
-      <c r="B24" s="94"/>
-      <c r="C24" s="77"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="74"/>
       <c r="D24" s="57" t="s">
-        <v>136</v>
-      </c>
-      <c r="E24" s="91"/>
+        <v>131</v>
+      </c>
+      <c r="E24" s="96"/>
       <c r="F24" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="78"/>
-      <c r="L24" s="79"/>
-      <c r="M24" s="79"/>
-      <c r="N24" s="79"/>
-      <c r="O24" s="79"/>
-      <c r="P24" s="80"/>
+        <v>119</v>
+      </c>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="76"/>
+      <c r="N24" s="76"/>
+      <c r="O24" s="76"/>
+      <c r="P24" s="77"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="61"/>
-      <c r="B25" s="94"/>
-      <c r="C25" s="77"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="74"/>
       <c r="D25" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="E25" s="92"/>
-      <c r="F25" s="89" t="s">
-        <v>138</v>
-      </c>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="78"/>
-      <c r="K25" s="78"/>
-      <c r="L25" s="79"/>
-      <c r="M25" s="79"/>
-      <c r="N25" s="79"/>
-      <c r="O25" s="79"/>
-      <c r="P25" s="80"/>
+        <v>132</v>
+      </c>
+      <c r="E25" s="97"/>
+      <c r="F25" s="80" t="s">
+        <v>133</v>
+      </c>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="75"/>
+      <c r="K25" s="75"/>
+      <c r="L25" s="76"/>
+      <c r="M25" s="76"/>
+      <c r="N25" s="76"/>
+      <c r="O25" s="76"/>
+      <c r="P25" s="77"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="61"/>
-      <c r="B26" s="94"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="90" t="s">
-        <v>139</v>
-      </c>
-      <c r="F26" s="89" t="s">
-        <v>140</v>
-      </c>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="78"/>
-      <c r="L26" s="79"/>
-      <c r="M26" s="79"/>
-      <c r="N26" s="79"/>
-      <c r="O26" s="79"/>
-      <c r="P26" s="80"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="E26" s="98" t="s">
+        <v>134</v>
+      </c>
+      <c r="F26" s="80" t="s">
+        <v>135</v>
+      </c>
+      <c r="G26" s="80" t="s">
+        <v>160</v>
+      </c>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="76"/>
+      <c r="N26" s="76"/>
+      <c r="O26" s="76"/>
+      <c r="P26" s="77"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="61"/>
-      <c r="B27" s="94"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="89" t="s">
-        <v>141</v>
-      </c>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="78"/>
-      <c r="K27" s="78"/>
-      <c r="L27" s="79"/>
-      <c r="M27" s="79"/>
-      <c r="N27" s="79"/>
-      <c r="O27" s="79"/>
-      <c r="P27" s="80"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="E27" s="99"/>
+      <c r="F27" s="80" t="s">
+        <v>136</v>
+      </c>
+      <c r="G27" s="80" t="s">
+        <v>161</v>
+      </c>
+      <c r="H27" s="74"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="76"/>
+      <c r="M27" s="76"/>
+      <c r="N27" s="76"/>
+      <c r="O27" s="76"/>
+      <c r="P27" s="77"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="61"/>
-      <c r="B28" s="94"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="89" t="s">
-        <v>142</v>
-      </c>
-      <c r="G28" s="77"/>
-      <c r="H28" s="77"/>
-      <c r="I28" s="77"/>
-      <c r="J28" s="78"/>
-      <c r="K28" s="78"/>
-      <c r="L28" s="79"/>
-      <c r="M28" s="79"/>
-      <c r="N28" s="79"/>
-      <c r="O28" s="79"/>
-      <c r="P28" s="80"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="E28" s="99"/>
+      <c r="F28" s="80" t="s">
+        <v>137</v>
+      </c>
+      <c r="G28" s="80" t="s">
+        <v>162</v>
+      </c>
+      <c r="H28" s="74"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="75"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="76"/>
+      <c r="M28" s="76"/>
+      <c r="N28" s="76"/>
+      <c r="O28" s="76"/>
+      <c r="P28" s="77"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="61"/>
-      <c r="B29" s="94"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="91"/>
-      <c r="F29" s="89" t="s">
-        <v>143</v>
-      </c>
-      <c r="G29" s="77"/>
-      <c r="H29" s="77"/>
-      <c r="I29" s="77"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="79"/>
-      <c r="M29" s="79"/>
-      <c r="N29" s="79"/>
-      <c r="O29" s="79"/>
-      <c r="P29" s="80"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="E29" s="99"/>
+      <c r="F29" s="80" t="s">
+        <v>138</v>
+      </c>
+      <c r="G29" s="80" t="s">
+        <v>163</v>
+      </c>
+      <c r="H29" s="74"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="75"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="76"/>
+      <c r="M29" s="76"/>
+      <c r="N29" s="76"/>
+      <c r="O29" s="76"/>
+      <c r="P29" s="77"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="61"/>
-      <c r="B30" s="94"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="91"/>
-      <c r="F30" s="89" t="s">
-        <v>144</v>
-      </c>
-      <c r="G30" s="77"/>
-      <c r="H30" s="77"/>
-      <c r="I30" s="77"/>
-      <c r="J30" s="78"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="79"/>
-      <c r="M30" s="79"/>
-      <c r="N30" s="79"/>
-      <c r="O30" s="79"/>
-      <c r="P30" s="80"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="57" t="s">
+        <v>156</v>
+      </c>
+      <c r="E30" s="99"/>
+      <c r="F30" s="80" t="s">
+        <v>139</v>
+      </c>
+      <c r="G30" s="80" t="s">
+        <v>164</v>
+      </c>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="75"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="76"/>
+      <c r="M30" s="76"/>
+      <c r="N30" s="76"/>
+      <c r="O30" s="76"/>
+      <c r="P30" s="77"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="61"/>
-      <c r="B31" s="94"/>
-      <c r="C31" s="77"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="91"/>
-      <c r="F31" s="89" t="s">
-        <v>145</v>
-      </c>
-      <c r="G31" s="77"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="78"/>
-      <c r="K31" s="78"/>
-      <c r="L31" s="79"/>
-      <c r="M31" s="79"/>
-      <c r="N31" s="79"/>
-      <c r="O31" s="79"/>
-      <c r="P31" s="80"/>
+      <c r="B31" s="88"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" s="99"/>
+      <c r="F31" s="80" t="s">
+        <v>140</v>
+      </c>
+      <c r="G31" s="80" t="s">
+        <v>165</v>
+      </c>
+      <c r="H31" s="74"/>
+      <c r="I31" s="74"/>
+      <c r="J31" s="75"/>
+      <c r="K31" s="75"/>
+      <c r="L31" s="76"/>
+      <c r="M31" s="76"/>
+      <c r="N31" s="76"/>
+      <c r="O31" s="76"/>
+      <c r="P31" s="77"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="61"/>
-      <c r="B32" s="94"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="91"/>
-      <c r="F32" s="89">
-        <v>7</v>
-      </c>
-      <c r="G32" s="77"/>
-      <c r="H32" s="77"/>
-      <c r="I32" s="77"/>
-      <c r="J32" s="78"/>
-      <c r="K32" s="78"/>
-      <c r="L32" s="79"/>
-      <c r="M32" s="79"/>
-      <c r="N32" s="79"/>
-      <c r="O32" s="79"/>
-      <c r="P32" s="80"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="57" t="s">
+        <v>158</v>
+      </c>
+      <c r="E32" s="99"/>
+      <c r="F32" s="80" t="s">
+        <v>144</v>
+      </c>
+      <c r="G32" s="80" t="s">
+        <v>166</v>
+      </c>
+      <c r="H32" s="74"/>
+      <c r="I32" s="74"/>
+      <c r="J32" s="75"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="76"/>
+      <c r="M32" s="76"/>
+      <c r="N32" s="76"/>
+      <c r="O32" s="76"/>
+      <c r="P32" s="77"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="61"/>
-      <c r="B33" s="94"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="91"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="77"/>
-      <c r="I33" s="77"/>
-      <c r="J33" s="78"/>
-      <c r="K33" s="78"/>
-      <c r="L33" s="79"/>
-      <c r="M33" s="79"/>
-      <c r="N33" s="79"/>
-      <c r="O33" s="79"/>
-      <c r="P33" s="80"/>
+      <c r="B33" s="88"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="E33" s="99"/>
+      <c r="F33" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="G33" s="74"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="75"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="76"/>
+      <c r="M33" s="76"/>
+      <c r="N33" s="76"/>
+      <c r="O33" s="76"/>
+      <c r="P33" s="77"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="61"/>
-      <c r="B34" s="94"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="92"/>
-      <c r="F34" s="89"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="77"/>
-      <c r="J34" s="78"/>
-      <c r="K34" s="78"/>
-      <c r="L34" s="79"/>
-      <c r="M34" s="79"/>
-      <c r="N34" s="79"/>
-      <c r="O34" s="79"/>
-      <c r="P34" s="80"/>
+      <c r="B34" s="88"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="76"/>
+      <c r="M34" s="76"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="76"/>
+      <c r="P34" s="77"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="61"/>
-      <c r="B35" s="94"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="89"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="77"/>
-      <c r="J35" s="78"/>
-      <c r="K35" s="78"/>
-      <c r="L35" s="79"/>
-      <c r="M35" s="79"/>
-      <c r="N35" s="79"/>
-      <c r="O35" s="79"/>
-      <c r="P35" s="80"/>
+      <c r="B35" s="88"/>
+      <c r="C35" s="74"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="74"/>
+      <c r="J35" s="75"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="76"/>
+      <c r="N35" s="76"/>
+      <c r="O35" s="76"/>
+      <c r="P35" s="77"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="61"/>
-      <c r="B36" s="94"/>
-      <c r="C36" s="77"/>
-      <c r="D36" s="77"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="89"/>
-      <c r="G36" s="77"/>
-      <c r="H36" s="77"/>
-      <c r="I36" s="77"/>
-      <c r="J36" s="78"/>
-      <c r="K36" s="78"/>
-      <c r="L36" s="79"/>
-      <c r="M36" s="79"/>
-      <c r="N36" s="79"/>
-      <c r="O36" s="79"/>
-      <c r="P36" s="80"/>
+      <c r="B36" s="88"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="74"/>
+      <c r="H36" s="74"/>
+      <c r="I36" s="74"/>
+      <c r="J36" s="75"/>
+      <c r="K36" s="75"/>
+      <c r="L36" s="76"/>
+      <c r="M36" s="76"/>
+      <c r="N36" s="76"/>
+      <c r="O36" s="76"/>
+      <c r="P36" s="77"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="61"/>
-      <c r="B37" s="94"/>
-      <c r="C37" s="77"/>
-      <c r="D37" s="77"/>
-      <c r="E37" s="77"/>
-      <c r="F37" s="89"/>
-      <c r="G37" s="77"/>
-      <c r="H37" s="77"/>
-      <c r="I37" s="77"/>
-      <c r="J37" s="78"/>
-      <c r="K37" s="78"/>
-      <c r="L37" s="79"/>
-      <c r="M37" s="79"/>
-      <c r="N37" s="79"/>
-      <c r="O37" s="79"/>
-      <c r="P37" s="80"/>
+      <c r="B37" s="88"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="80"/>
+      <c r="G37" s="74"/>
+      <c r="H37" s="74"/>
+      <c r="I37" s="74"/>
+      <c r="J37" s="75"/>
+      <c r="K37" s="75"/>
+      <c r="L37" s="76"/>
+      <c r="M37" s="76"/>
+      <c r="N37" s="76"/>
+      <c r="O37" s="76"/>
+      <c r="P37" s="77"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="61"/>
-      <c r="B38" s="94"/>
-      <c r="C38" s="77"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="77"/>
-      <c r="F38" s="89"/>
-      <c r="G38" s="77"/>
-      <c r="H38" s="77"/>
-      <c r="I38" s="77"/>
-      <c r="J38" s="78"/>
-      <c r="K38" s="78"/>
-      <c r="L38" s="79"/>
-      <c r="M38" s="79"/>
-      <c r="N38" s="79"/>
-      <c r="O38" s="79"/>
-      <c r="P38" s="80"/>
+      <c r="B38" s="88"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="80"/>
+      <c r="G38" s="74"/>
+      <c r="H38" s="74"/>
+      <c r="I38" s="74"/>
+      <c r="J38" s="75"/>
+      <c r="K38" s="75"/>
+      <c r="L38" s="76"/>
+      <c r="M38" s="76"/>
+      <c r="N38" s="76"/>
+      <c r="O38" s="76"/>
+      <c r="P38" s="77"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="61"/>
-      <c r="B39" s="94"/>
-      <c r="C39" s="77"/>
-      <c r="D39" s="77"/>
-      <c r="E39" s="77"/>
-      <c r="F39" s="89"/>
-      <c r="G39" s="77"/>
-      <c r="H39" s="77"/>
-      <c r="I39" s="77"/>
-      <c r="J39" s="78"/>
-      <c r="K39" s="78"/>
-      <c r="L39" s="79"/>
-      <c r="M39" s="79"/>
-      <c r="N39" s="79"/>
-      <c r="O39" s="79"/>
-      <c r="P39" s="80"/>
+      <c r="B39" s="89"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="80"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="74"/>
+      <c r="J39" s="75"/>
+      <c r="K39" s="75"/>
+      <c r="L39" s="76"/>
+      <c r="M39" s="76"/>
+      <c r="N39" s="76"/>
+      <c r="O39" s="76"/>
+      <c r="P39" s="77"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="61"/>
-      <c r="B40" s="95"/>
-      <c r="C40" s="77"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="89"/>
-      <c r="G40" s="77"/>
-      <c r="H40" s="77"/>
-      <c r="I40" s="77"/>
-      <c r="J40" s="78"/>
-      <c r="K40" s="78"/>
-      <c r="L40" s="79"/>
-      <c r="M40" s="79"/>
-      <c r="N40" s="79"/>
-      <c r="O40" s="79"/>
-      <c r="P40" s="80"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="61"/>
+      <c r="K40" s="61"/>
+      <c r="L40" s="62"/>
+      <c r="M40" s="62"/>
+      <c r="N40" s="62"/>
+      <c r="O40" s="62"/>
+      <c r="P40" s="63"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="61"/>
@@ -3046,13 +3194,13 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="61"/>
-      <c r="B56" s="60"/>
-      <c r="C56" s="60"/>
-      <c r="D56" s="60"/>
-      <c r="E56" s="60"/>
-      <c r="F56" s="60"/>
-      <c r="G56" s="60"/>
-      <c r="H56" s="60"/>
+      <c r="B56" s="61"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="61"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="61"/>
+      <c r="G56" s="61"/>
+      <c r="H56" s="61"/>
       <c r="I56" s="60"/>
       <c r="J56" s="61"/>
       <c r="K56" s="61"/>
@@ -4340,24 +4488,6 @@
       <c r="O127" s="62"/>
       <c r="P127" s="63"/>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A128" s="61"/>
-      <c r="B128" s="61"/>
-      <c r="C128" s="61"/>
-      <c r="D128" s="61"/>
-      <c r="E128" s="61"/>
-      <c r="F128" s="61"/>
-      <c r="G128" s="61"/>
-      <c r="H128" s="61"/>
-      <c r="I128" s="60"/>
-      <c r="J128" s="61"/>
-      <c r="K128" s="61"/>
-      <c r="L128" s="62"/>
-      <c r="M128" s="62"/>
-      <c r="N128" s="62"/>
-      <c r="O128" s="62"/>
-      <c r="P128" s="63"/>
-    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B8:J8"/>
@@ -4365,10 +4495,10 @@
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="C10:C20"/>
-    <mergeCell ref="B10:B40"/>
+    <mergeCell ref="B10:B39"/>
     <mergeCell ref="E10:E20"/>
     <mergeCell ref="E21:E25"/>
-    <mergeCell ref="E26:E34"/>
+    <mergeCell ref="E26:E33"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestCase/KG__ERP__IntegrationTestCase__EmployeeDashboard__2019-08-06__v1.0.0.xlsx
+++ b/TestCase/KG__ERP__IntegrationTestCase__EmployeeDashboard__2019-08-06__v1.0.0.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="171">
   <si>
     <t>General Guidelines</t>
   </si>
@@ -601,6 +601,9 @@
   </si>
   <si>
     <t>3. Individual Employee time will show with Employee ID and date range which employee have on leave.</t>
+  </si>
+  <si>
+    <t>Non-privileged users are not allowed to access the page</t>
   </si>
 </sst>
 </file>
@@ -987,7 +990,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1193,6 +1196,12 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1220,12 +1229,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1250,6 +1253,7 @@
     <xf numFmtId="0" fontId="18" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2032,7 +2036,7 @@
   <dimension ref="A1:P127"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F8" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2042,7 +2046,7 @@
     <col min="5" max="5" width="20.140625" customWidth="1"/>
     <col min="6" max="6" width="59.140625" customWidth="1"/>
     <col min="7" max="7" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" customWidth="1"/>
     <col min="9" max="9" width="15.5703125" customWidth="1"/>
     <col min="10" max="10" width="15.7109375" customWidth="1"/>
   </cols>
@@ -2090,10 +2094,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="83" t="s">
+      <c r="D4" s="85" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="83"/>
+      <c r="E4" s="85"/>
       <c r="F4" s="4"/>
       <c r="H4" s="9"/>
       <c r="I4" s="33"/>
@@ -2126,8 +2130,8 @@
         <v>24</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
       <c r="F6" s="4"/>
       <c r="H6" s="9"/>
       <c r="I6" s="33"/>
@@ -2158,24 +2162,24 @@
     </row>
     <row r="8" spans="1:16" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="82" t="s">
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="82"/>
-      <c r="M8" s="82"/>
-      <c r="N8" s="82"/>
-      <c r="O8" s="82"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="84"/>
       <c r="P8" s="43" t="s">
         <v>13</v>
       </c>
@@ -2230,10 +2234,10 @@
     </row>
     <row r="10" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="56"/>
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="89" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="84" t="s">
+      <c r="C10" s="86" t="s">
         <v>95</v>
       </c>
       <c r="D10" s="57" t="s">
@@ -2245,10 +2249,12 @@
       <c r="F10" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="H10" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="H10" s="29"/>
       <c r="I10" s="58" t="s">
         <v>105</v>
       </c>
@@ -2260,10 +2266,10 @@
       <c r="O10" s="64"/>
       <c r="P10" s="58"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="56"/>
-      <c r="B11" s="88"/>
-      <c r="C11" s="85"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="87"/>
       <c r="D11" s="57" t="s">
         <v>98</v>
       </c>
@@ -2271,10 +2277,10 @@
       <c r="F11" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="100"/>
+      <c r="H11" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="H11" s="29"/>
       <c r="I11" s="58"/>
       <c r="J11" s="29"/>
       <c r="K11" s="59"/>
@@ -2286,8 +2292,8 @@
     </row>
     <row r="12" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="56"/>
-      <c r="B12" s="88"/>
-      <c r="C12" s="85"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="87"/>
       <c r="D12" s="57" t="s">
         <v>99</v>
       </c>
@@ -2295,10 +2301,10 @@
       <c r="F12" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="100"/>
+      <c r="H12" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="H12" s="29"/>
       <c r="I12" s="58"/>
       <c r="J12" s="65"/>
       <c r="K12" s="59"/>
@@ -2310,8 +2316,8 @@
     </row>
     <row r="13" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="61"/>
-      <c r="B13" s="88"/>
-      <c r="C13" s="85"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="87"/>
       <c r="D13" s="57" t="s">
         <v>120</v>
       </c>
@@ -2319,10 +2325,10 @@
       <c r="F13" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="G13" s="57" t="s">
+      <c r="G13" s="100"/>
+      <c r="H13" s="57" t="s">
         <v>150</v>
       </c>
-      <c r="H13" s="74"/>
       <c r="I13" s="74"/>
       <c r="J13" s="75"/>
       <c r="K13" s="75"/>
@@ -2334,8 +2340,8 @@
     </row>
     <row r="14" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="61"/>
-      <c r="B14" s="88"/>
-      <c r="C14" s="85"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="87"/>
       <c r="D14" s="57" t="s">
         <v>121</v>
       </c>
@@ -2343,10 +2349,10 @@
       <c r="F14" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="G14" s="91" t="s">
+      <c r="G14" s="100"/>
+      <c r="H14" s="82" t="s">
         <v>151</v>
       </c>
-      <c r="H14" s="74"/>
       <c r="I14" s="74"/>
       <c r="J14" s="74"/>
       <c r="K14" s="75"/>
@@ -2358,8 +2364,8 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="61"/>
-      <c r="B15" s="88"/>
-      <c r="C15" s="85"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="87"/>
       <c r="D15" s="57" t="s">
         <v>122</v>
       </c>
@@ -2367,7 +2373,7 @@
       <c r="F15" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="G15" s="74"/>
+      <c r="G15" s="100"/>
       <c r="H15" s="74"/>
       <c r="I15" s="74"/>
       <c r="J15" s="75"/>
@@ -2380,8 +2386,8 @@
     </row>
     <row r="16" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="61"/>
-      <c r="B16" s="88"/>
-      <c r="C16" s="85"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="87"/>
       <c r="D16" s="57" t="s">
         <v>123</v>
       </c>
@@ -2402,8 +2408,8 @@
     </row>
     <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="61"/>
-      <c r="B17" s="88"/>
-      <c r="C17" s="85"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="87"/>
       <c r="D17" s="57" t="s">
         <v>124</v>
       </c>
@@ -2424,8 +2430,8 @@
     </row>
     <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="61"/>
-      <c r="B18" s="88"/>
-      <c r="C18" s="85"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="87"/>
       <c r="D18" s="57" t="s">
         <v>125</v>
       </c>
@@ -2446,8 +2452,8 @@
     </row>
     <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="61"/>
-      <c r="B19" s="88"/>
-      <c r="C19" s="85"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="87"/>
       <c r="D19" s="57" t="s">
         <v>126</v>
       </c>
@@ -2468,13 +2474,13 @@
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="61"/>
-      <c r="B20" s="88"/>
-      <c r="C20" s="86"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="88"/>
       <c r="D20" s="57" t="s">
         <v>127</v>
       </c>
       <c r="E20" s="94"/>
-      <c r="F20" s="90"/>
+      <c r="F20" s="81"/>
       <c r="G20" s="74"/>
       <c r="H20" s="74"/>
       <c r="I20" s="74"/>
@@ -2488,7 +2494,7 @@
     </row>
     <row r="21" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="61"/>
-      <c r="B21" s="88"/>
+      <c r="B21" s="90"/>
       <c r="C21" s="74"/>
       <c r="D21" s="57" t="s">
         <v>128</v>
@@ -2514,7 +2520,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="61"/>
-      <c r="B22" s="88"/>
+      <c r="B22" s="90"/>
       <c r="C22" s="74"/>
       <c r="D22" s="57" t="s">
         <v>129</v>
@@ -2538,7 +2544,7 @@
     </row>
     <row r="23" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A23" s="61"/>
-      <c r="B23" s="88"/>
+      <c r="B23" s="90"/>
       <c r="C23" s="74"/>
       <c r="D23" s="57" t="s">
         <v>130</v>
@@ -2562,7 +2568,7 @@
     </row>
     <row r="24" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A24" s="61"/>
-      <c r="B24" s="88"/>
+      <c r="B24" s="90"/>
       <c r="C24" s="74"/>
       <c r="D24" s="57" t="s">
         <v>131</v>
@@ -2584,7 +2590,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="61"/>
-      <c r="B25" s="88"/>
+      <c r="B25" s="90"/>
       <c r="C25" s="74"/>
       <c r="D25" s="57" t="s">
         <v>132</v>
@@ -2606,7 +2612,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="61"/>
-      <c r="B26" s="88"/>
+      <c r="B26" s="90"/>
       <c r="C26" s="74"/>
       <c r="D26" s="57" t="s">
         <v>152</v>
@@ -2632,7 +2638,7 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="61"/>
-      <c r="B27" s="88"/>
+      <c r="B27" s="90"/>
       <c r="C27" s="74"/>
       <c r="D27" s="57" t="s">
         <v>153</v>
@@ -2656,7 +2662,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="61"/>
-      <c r="B28" s="88"/>
+      <c r="B28" s="90"/>
       <c r="C28" s="74"/>
       <c r="D28" s="57" t="s">
         <v>154</v>
@@ -2680,7 +2686,7 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="61"/>
-      <c r="B29" s="88"/>
+      <c r="B29" s="90"/>
       <c r="C29" s="74"/>
       <c r="D29" s="57" t="s">
         <v>155</v>
@@ -2704,7 +2710,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="61"/>
-      <c r="B30" s="88"/>
+      <c r="B30" s="90"/>
       <c r="C30" s="74"/>
       <c r="D30" s="57" t="s">
         <v>156</v>
@@ -2728,7 +2734,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="61"/>
-      <c r="B31" s="88"/>
+      <c r="B31" s="90"/>
       <c r="C31" s="74"/>
       <c r="D31" s="57" t="s">
         <v>157</v>
@@ -2752,7 +2758,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="61"/>
-      <c r="B32" s="88"/>
+      <c r="B32" s="90"/>
       <c r="C32" s="74"/>
       <c r="D32" s="57" t="s">
         <v>158</v>
@@ -2776,7 +2782,7 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="61"/>
-      <c r="B33" s="88"/>
+      <c r="B33" s="90"/>
       <c r="C33" s="74"/>
       <c r="D33" s="57" t="s">
         <v>159</v>
@@ -2798,7 +2804,7 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="61"/>
-      <c r="B34" s="88"/>
+      <c r="B34" s="90"/>
       <c r="C34" s="74"/>
       <c r="D34" s="57"/>
       <c r="E34" s="74"/>
@@ -2816,7 +2822,7 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="61"/>
-      <c r="B35" s="88"/>
+      <c r="B35" s="90"/>
       <c r="C35" s="74"/>
       <c r="D35" s="57"/>
       <c r="E35" s="74"/>
@@ -2834,7 +2840,7 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="61"/>
-      <c r="B36" s="88"/>
+      <c r="B36" s="90"/>
       <c r="C36" s="74"/>
       <c r="D36" s="57"/>
       <c r="E36" s="74"/>
@@ -2852,7 +2858,7 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="61"/>
-      <c r="B37" s="88"/>
+      <c r="B37" s="90"/>
       <c r="C37" s="74"/>
       <c r="D37" s="57"/>
       <c r="E37" s="74"/>
@@ -2870,7 +2876,7 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="61"/>
-      <c r="B38" s="88"/>
+      <c r="B38" s="90"/>
       <c r="C38" s="74"/>
       <c r="D38" s="57"/>
       <c r="E38" s="74"/>
@@ -2888,7 +2894,7 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="61"/>
-      <c r="B39" s="89"/>
+      <c r="B39" s="91"/>
       <c r="C39" s="74"/>
       <c r="D39" s="57"/>
       <c r="E39" s="74"/>
